--- a/Data Sources/Vehicles/archive/CurrentULEVRegister.xlsx
+++ b/Data Sources/Vehicles/archive/CurrentULEVRegister.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\virago.internal.dtlr.gov.uk\data\AFP\RLTDAll\STS\005 MOTORING AGENCIES\003 OTHER REGULAR OUTPUTS\0023 Region-Country versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AFP\RLTDAll\STS\005 MOTORING AGENCIES\003 OTHER REGULAR OUTPUTS\0023 Region-Country versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708C86FD-0D8A-4820-8D41-887F98853CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FA37956-390A-4597-AFFB-AC4429331558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VEH0170 Scotland" sheetId="2" r:id="rId1"/>
@@ -325,7 +325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
   <si>
     <t>Department for Transport statistics</t>
   </si>
@@ -688,9 +688,6 @@
     <t>2019 Q4</t>
   </si>
   <si>
-    <t>AUDI E-TRON</t>
-  </si>
-  <si>
     <t>Plug-in Quadricycles</t>
   </si>
   <si>
@@ -842,19 +839,25 @@
     <t>2021 Q2</t>
   </si>
   <si>
-    <t>Top 20 generic models from July 2020 to June 2021</t>
-  </si>
-  <si>
     <t>FORD KUGA</t>
   </si>
   <si>
-    <t>MERCEDES EQC CLASS</t>
-  </si>
-  <si>
-    <t>NISSAN E-NV200</t>
-  </si>
-  <si>
-    <t>PEUGEOT 208</t>
+    <t>2021 Q3</t>
+  </si>
+  <si>
+    <t>Top 20 generic models from October 2020 to September 2021</t>
+  </si>
+  <si>
+    <t>MG 5</t>
+  </si>
+  <si>
+    <t>LAND ROVER RANGE ROVER EVOQUE</t>
+  </si>
+  <si>
+    <t>AUDI A3</t>
+  </si>
+  <si>
+    <t>SKODA ENYAQ</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1072,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1178,9 +1181,6 @@
     <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1213,15 +1213,6 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1234,6 +1225,12 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1245,6 +1242,15 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5157,36 +5163,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:Z109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" style="19" customWidth="1"/>
     <col min="2" max="3" width="17" style="19" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" style="19" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="19" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="19" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="19" customWidth="1"/>
-    <col min="18" max="22" width="13.42578125" style="19" customWidth="1"/>
-    <col min="23" max="16384" width="12.5703125" style="19"/>
+    <col min="4" max="4" width="17.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" style="19" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" style="19" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" style="19" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" style="19" customWidth="1"/>
+    <col min="18" max="22" width="13.44140625" style="19" customWidth="1"/>
+    <col min="23" max="16384" width="12.5546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5197,7 +5203,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5218,7 +5224,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -5226,7 +5232,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -5237,7 +5243,7 @@
       <c r="F4" s="8"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:22" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>65</v>
       </c>
@@ -5272,92 +5278,92 @@
       <c r="V6" s="12"/>
     </row>
     <row r="7" spans="1:22" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="56" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="H7" s="55"/>
+      <c r="I7" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56" t="s">
+      <c r="J7" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="56" t="s">
+      <c r="K7" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="56" t="s">
+      <c r="L7" s="55"/>
+      <c r="M7" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="T7" s="56" t="s">
+      <c r="T7" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="U7" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="U7" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="V7" s="56" t="s">
+      <c r="V7" s="55" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="62"/>
+      <c r="B8" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
     </row>
     <row r="9" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
@@ -5669,7 +5675,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>2015</v>
       </c>
@@ -5731,7 +5737,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>2016</v>
       </c>
@@ -5793,7 +5799,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>2017</v>
       </c>
@@ -5855,7 +5861,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>2018</v>
       </c>
@@ -5917,7 +5923,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>2019</v>
       </c>
@@ -5979,7 +5985,7 @@
         <v>5066</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>2020</v>
       </c>
@@ -7467,7 +7473,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>31</v>
       </c>
@@ -8523,7 +8529,7 @@
     </row>
     <row r="60" spans="1:22" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B60" s="44">
         <v>1022</v>
@@ -8584,8 +8590,8 @@
       </c>
     </row>
     <row r="61" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="50" t="s">
-        <v>84</v>
+      <c r="A61" s="49" t="s">
+        <v>83</v>
       </c>
       <c r="B61" s="44">
         <v>518</v>
@@ -8646,8 +8652,8 @@
       </c>
     </row>
     <row r="62" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="50" t="s">
-        <v>85</v>
+      <c r="A62" s="49" t="s">
+        <v>84</v>
       </c>
       <c r="B62" s="44">
         <v>2094</v>
@@ -8708,8 +8714,8 @@
       </c>
     </row>
     <row r="63" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="50" t="s">
-        <v>90</v>
+      <c r="A63" s="49" t="s">
+        <v>89</v>
       </c>
       <c r="B63" s="44">
         <v>2277</v>
@@ -8769,18 +8775,18 @@
         <v>4445</v>
       </c>
     </row>
-    <row r="64" spans="1:22" s="55" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="50" t="s">
+    <row r="64" spans="1:22" s="54" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="23" t="s">
-        <v>101</v>
-      </c>
       <c r="C64" s="44">
         <v>0</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E64" s="44">
         <v>0</v>
@@ -8831,93 +8837,131 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="65" spans="1:22" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" s="9" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A65" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B65" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="25">
-        <v>0</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E65" s="45">
+      <c r="B65" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="68">
+        <v>0</v>
+      </c>
+      <c r="D65" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" s="44">
         <v>1</v>
       </c>
-      <c r="F65" s="45">
-        <v>0</v>
-      </c>
-      <c r="G65" s="45">
+      <c r="F65" s="44">
+        <v>0</v>
+      </c>
+      <c r="G65" s="44">
         <v>3684</v>
       </c>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45">
+      <c r="H65" s="44"/>
+      <c r="I65" s="44">
         <v>44</v>
       </c>
-      <c r="J65" s="45">
+      <c r="J65" s="44">
         <v>9</v>
       </c>
-      <c r="K65" s="45">
+      <c r="K65" s="44">
         <v>53</v>
       </c>
-      <c r="L65" s="45"/>
-      <c r="M65" s="45">
+      <c r="L65" s="44"/>
+      <c r="M65" s="44">
         <v>127</v>
       </c>
-      <c r="N65" s="45">
+      <c r="N65" s="44">
         <v>5</v>
       </c>
-      <c r="O65" s="45">
-        <v>0</v>
-      </c>
-      <c r="P65" s="45">
+      <c r="O65" s="44">
+        <v>0</v>
+      </c>
+      <c r="P65" s="44">
         <v>132</v>
       </c>
-      <c r="Q65" s="45"/>
-      <c r="R65" s="45">
+      <c r="Q65" s="44"/>
+      <c r="R65" s="44">
         <v>4</v>
       </c>
-      <c r="S65" s="45">
+      <c r="S65" s="44">
         <v>10</v>
       </c>
-      <c r="T65" s="45">
+      <c r="T65" s="44">
         <v>1</v>
       </c>
-      <c r="U65" s="45">
+      <c r="U65" s="44">
         <v>4</v>
       </c>
-      <c r="V65" s="45">
+      <c r="V65" s="44">
         <v>3888</v>
       </c>
     </row>
-    <row r="66" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="23"/>
-      <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="23"/>
-    </row>
-    <row r="67" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="69">
+        <v>0</v>
+      </c>
+      <c r="D66" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" s="69">
+        <v>4</v>
+      </c>
+      <c r="F66" s="69">
+        <v>0</v>
+      </c>
+      <c r="G66" s="69">
+        <v>4480</v>
+      </c>
+      <c r="H66" s="69"/>
+      <c r="I66" s="69">
+        <v>70</v>
+      </c>
+      <c r="J66" s="69">
+        <v>7</v>
+      </c>
+      <c r="K66" s="69">
+        <v>77</v>
+      </c>
+      <c r="L66" s="69"/>
+      <c r="M66" s="69">
+        <v>115</v>
+      </c>
+      <c r="N66" s="69">
+        <v>10</v>
+      </c>
+      <c r="O66" s="69">
+        <v>0</v>
+      </c>
+      <c r="P66" s="69">
+        <v>125</v>
+      </c>
+      <c r="Q66" s="69"/>
+      <c r="R66" s="69">
+        <v>0</v>
+      </c>
+      <c r="S66" s="69">
+        <v>31</v>
+      </c>
+      <c r="T66" s="69">
+        <v>4</v>
+      </c>
+      <c r="U66" s="69">
+        <v>11</v>
+      </c>
+      <c r="V66" s="69">
+        <v>4728</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="21"/>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
@@ -8942,8 +8986,8 @@
       <c r="V67" s="23"/>
     </row>
     <row r="68" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="54" t="s">
-        <v>103</v>
+      <c r="A68" s="53" t="s">
+        <v>104</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -8968,105 +9012,105 @@
       <c r="V68" s="12"/>
     </row>
     <row r="69" spans="1:22" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="58" t="s">
+      <c r="A69" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="60" t="s">
+      <c r="B69" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="56" t="s">
+      <c r="C69" s="67"/>
+      <c r="D69" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="E69" s="56" t="s">
+      <c r="E69" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F69" s="56" t="s">
+      <c r="F69" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="G69" s="56" t="s">
+      <c r="H69" s="55"/>
+      <c r="I69" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56" t="s">
+      <c r="J69" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="J69" s="56" t="s">
+      <c r="K69" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="K69" s="56" t="s">
+      <c r="L69" s="55"/>
+      <c r="M69" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="N69" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="O69" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="P69" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q69" s="55"/>
+      <c r="R69" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="S69" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="L69" s="56"/>
-      <c r="M69" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="N69" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="O69" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="P69" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q69" s="56"/>
-      <c r="R69" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="S69" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="T69" s="56" t="s">
+      <c r="T69" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="U69" s="56" t="s">
+      <c r="U69" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="V69" s="56" t="s">
+      <c r="V69" s="55" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="59"/>
-      <c r="B70" s="46" t="s">
+      <c r="A70" s="62"/>
+      <c r="B70" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="46" t="s">
+      <c r="C70" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="57"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="57"/>
-      <c r="J70" s="57"/>
-      <c r="K70" s="57"/>
-      <c r="L70" s="57"/>
-      <c r="M70" s="57"/>
-      <c r="N70" s="57"/>
-      <c r="O70" s="57"/>
-      <c r="P70" s="57"/>
-      <c r="Q70" s="57"/>
-      <c r="R70" s="57"/>
-      <c r="S70" s="57"/>
-      <c r="T70" s="57"/>
-      <c r="U70" s="57"/>
-      <c r="V70" s="57"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="56"/>
+      <c r="P70" s="56"/>
+      <c r="Q70" s="56"/>
+      <c r="R70" s="56"/>
+      <c r="S70" s="56"/>
+      <c r="T70" s="56"/>
+      <c r="U70" s="56"/>
+      <c r="V70" s="56"/>
     </row>
     <row r="71" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="23" t="s">
-        <v>101</v>
+      <c r="B71" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C71" s="23">
         <v>0</v>
       </c>
-      <c r="D71" s="23" t="s">
-        <v>101</v>
+      <c r="D71" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E71" s="23">
         <v>0</v>
@@ -9075,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="23">
-        <v>1448</v>
+        <v>1487</v>
       </c>
       <c r="H71" s="23"/>
       <c r="I71" s="23">
@@ -9114,21 +9158,21 @@
         <v>0</v>
       </c>
       <c r="V71" s="23">
-        <v>1448</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="72" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="23" t="s">
-        <v>101</v>
+      <c r="B72" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C72" s="23">
         <v>0</v>
       </c>
-      <c r="D72" s="23" t="s">
-        <v>101</v>
+      <c r="D72" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E72" s="23">
         <v>0</v>
@@ -9137,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="23">
-        <v>1095</v>
+        <v>803</v>
       </c>
       <c r="H72" s="23"/>
       <c r="I72" s="23">
@@ -9176,21 +9220,21 @@
         <v>0</v>
       </c>
       <c r="V72" s="23">
-        <v>1095</v>
+        <v>803</v>
       </c>
     </row>
     <row r="73" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>101</v>
+        <v>60</v>
+      </c>
+      <c r="B73" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C73" s="23">
         <v>0</v>
       </c>
-      <c r="D73" s="23" t="s">
-        <v>101</v>
+      <c r="D73" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E73" s="23">
         <v>0</v>
@@ -9199,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="23">
-        <v>1036</v>
+        <v>676</v>
       </c>
       <c r="H73" s="23"/>
       <c r="I73" s="23">
@@ -9238,21 +9282,21 @@
         <v>0</v>
       </c>
       <c r="V73" s="23">
-        <v>1036</v>
+        <v>676</v>
       </c>
     </row>
     <row r="74" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>101</v>
+        <v>59</v>
+      </c>
+      <c r="B74" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C74" s="23">
         <v>0</v>
       </c>
-      <c r="D74" s="23" t="s">
-        <v>101</v>
+      <c r="D74" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E74" s="23">
         <v>0</v>
@@ -9261,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="23">
-        <v>861</v>
+        <v>640</v>
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="23">
@@ -9300,21 +9344,21 @@
         <v>0</v>
       </c>
       <c r="V74" s="23">
-        <v>861</v>
+        <v>640</v>
       </c>
     </row>
     <row r="75" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+      <c r="B75" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C75" s="23">
         <v>0</v>
       </c>
-      <c r="D75" s="23" t="s">
-        <v>101</v>
+      <c r="D75" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E75" s="23">
         <v>0</v>
@@ -9323,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="23">
-        <v>803</v>
+        <v>612</v>
       </c>
       <c r="H75" s="23"/>
       <c r="I75" s="23">
@@ -9362,21 +9406,21 @@
         <v>0</v>
       </c>
       <c r="V75" s="23">
-        <v>803</v>
+        <v>612</v>
       </c>
     </row>
     <row r="76" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="B76" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C76" s="23">
         <v>0</v>
       </c>
-      <c r="D76" s="23" t="s">
-        <v>101</v>
+      <c r="D76" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E76" s="23">
         <v>0</v>
@@ -9385,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="23">
-        <v>791</v>
+        <v>541</v>
       </c>
       <c r="H76" s="23"/>
       <c r="I76" s="23">
@@ -9424,21 +9468,21 @@
         <v>0</v>
       </c>
       <c r="V76" s="23">
-        <v>791</v>
+        <v>541</v>
       </c>
     </row>
     <row r="77" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>101</v>
+        <v>85</v>
+      </c>
+      <c r="B77" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C77" s="23">
         <v>0</v>
       </c>
-      <c r="D77" s="23" t="s">
-        <v>101</v>
+      <c r="D77" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E77" s="23">
         <v>0</v>
@@ -9447,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="23">
-        <v>671</v>
+        <v>530</v>
       </c>
       <c r="H77" s="23"/>
       <c r="I77" s="23">
@@ -9486,21 +9530,21 @@
         <v>0</v>
       </c>
       <c r="V77" s="23">
-        <v>671</v>
+        <v>530</v>
       </c>
     </row>
     <row r="78" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>101</v>
+        <v>86</v>
+      </c>
+      <c r="B78" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C78" s="23">
         <v>0</v>
       </c>
-      <c r="D78" s="23" t="s">
-        <v>101</v>
+      <c r="D78" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E78" s="23">
         <v>0</v>
@@ -9509,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="23">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="H78" s="23"/>
       <c r="I78" s="23">
@@ -9548,21 +9592,21 @@
         <v>0</v>
       </c>
       <c r="V78" s="23">
-        <v>513</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>101</v>
+        <v>87</v>
+      </c>
+      <c r="B79" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C79" s="23">
         <v>0</v>
       </c>
-      <c r="D79" s="23" t="s">
-        <v>101</v>
+      <c r="D79" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E79" s="23">
         <v>0</v>
@@ -9571,7 +9615,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="23">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="H79" s="23"/>
       <c r="I79" s="23">
@@ -9610,21 +9654,21 @@
         <v>0</v>
       </c>
       <c r="V79" s="23">
-        <v>493</v>
+        <v>510</v>
       </c>
     </row>
     <row r="80" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>101</v>
+        <v>62</v>
+      </c>
+      <c r="B80" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C80" s="23">
         <v>0</v>
       </c>
-      <c r="D80" s="23" t="s">
-        <v>101</v>
+      <c r="D80" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E80" s="23">
         <v>0</v>
@@ -9633,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="23">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="H80" s="23"/>
       <c r="I80" s="23">
@@ -9647,7 +9691,7 @@
       </c>
       <c r="L80" s="23"/>
       <c r="M80" s="23">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="N80" s="23">
         <v>0</v>
@@ -9656,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="P80" s="23">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q80" s="23"/>
       <c r="R80" s="23">
@@ -9672,21 +9716,21 @@
         <v>0</v>
       </c>
       <c r="V80" s="23">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="B81" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C81" s="23">
         <v>0</v>
       </c>
-      <c r="D81" s="23" t="s">
-        <v>101</v>
+      <c r="D81" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E81" s="23">
         <v>0</v>
@@ -9695,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="23">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="H81" s="23"/>
       <c r="I81" s="23">
@@ -9734,21 +9778,21 @@
         <v>0</v>
       </c>
       <c r="V81" s="23">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="B82" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C82" s="23">
         <v>0</v>
       </c>
-      <c r="D82" s="23" t="s">
-        <v>101</v>
+      <c r="D82" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E82" s="23">
         <v>0</v>
@@ -9757,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="23">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="H82" s="23"/>
       <c r="I82" s="23">
@@ -9796,21 +9840,21 @@
         <v>0</v>
       </c>
       <c r="V82" s="23">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B83" s="23" t="s">
-        <v>101</v>
+        <v>82</v>
+      </c>
+      <c r="B83" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C83" s="23">
         <v>0</v>
       </c>
-      <c r="D83" s="23" t="s">
-        <v>101</v>
+      <c r="D83" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E83" s="23">
         <v>0</v>
@@ -9819,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="23">
-        <v>370</v>
+        <v>457</v>
       </c>
       <c r="H83" s="23"/>
       <c r="I83" s="23">
@@ -9858,21 +9902,21 @@
         <v>0</v>
       </c>
       <c r="V83" s="23">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B84" s="23" t="s">
-        <v>101</v>
+      <c r="B84" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C84" s="23">
         <v>0</v>
       </c>
-      <c r="D84" s="23" t="s">
-        <v>101</v>
+      <c r="D84" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E84" s="23">
         <v>0</v>
@@ -9881,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="23">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="H84" s="23"/>
       <c r="I84" s="23">
@@ -9920,21 +9964,21 @@
         <v>0</v>
       </c>
       <c r="V84" s="23">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>101</v>
+        <v>88</v>
+      </c>
+      <c r="B85" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C85" s="23">
         <v>0</v>
       </c>
-      <c r="D85" s="23" t="s">
-        <v>101</v>
+      <c r="D85" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E85" s="23">
         <v>0</v>
@@ -9943,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="23">
-        <v>333</v>
+        <v>423</v>
       </c>
       <c r="H85" s="23"/>
       <c r="I85" s="23">
@@ -9957,7 +10001,7 @@
       </c>
       <c r="L85" s="23"/>
       <c r="M85" s="23">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N85" s="23">
         <v>0</v>
@@ -9966,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="P85" s="23">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="23"/>
       <c r="R85" s="23">
@@ -9982,21 +10026,21 @@
         <v>0</v>
       </c>
       <c r="V85" s="23">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>101</v>
+        <v>106</v>
+      </c>
+      <c r="B86" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C86" s="23">
         <v>0</v>
       </c>
-      <c r="D86" s="23" t="s">
-        <v>101</v>
+      <c r="D86" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E86" s="23">
         <v>0</v>
@@ -10047,18 +10091,18 @@
         <v>321</v>
       </c>
     </row>
-    <row r="87" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B87" s="23" t="s">
-        <v>101</v>
+        <v>61</v>
+      </c>
+      <c r="B87" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C87" s="23">
         <v>0</v>
       </c>
-      <c r="D87" s="23" t="s">
-        <v>101</v>
+      <c r="D87" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E87" s="23">
         <v>0</v>
@@ -10067,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="23">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H87" s="23"/>
       <c r="I87" s="23">
@@ -10106,21 +10150,21 @@
         <v>0</v>
       </c>
       <c r="V87" s="23">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B88" s="23" t="s">
-        <v>101</v>
+        <v>107</v>
+      </c>
+      <c r="B88" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C88" s="23">
         <v>0</v>
       </c>
-      <c r="D88" s="23" t="s">
-        <v>101</v>
+      <c r="D88" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E88" s="23">
         <v>0</v>
@@ -10129,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="23">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="H88" s="23"/>
       <c r="I88" s="23">
@@ -10168,21 +10212,21 @@
         <v>0</v>
       </c>
       <c r="V88" s="23">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B89" s="23" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+      <c r="B89" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C89" s="23">
         <v>0</v>
       </c>
-      <c r="D89" s="23" t="s">
-        <v>101</v>
+      <c r="D89" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E89" s="23">
         <v>0</v>
@@ -10191,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="23">
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="H89" s="23"/>
       <c r="I89" s="23">
@@ -10205,7 +10249,7 @@
       </c>
       <c r="L89" s="23"/>
       <c r="M89" s="23">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="N89" s="23">
         <v>0</v>
@@ -10214,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="P89" s="23">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="23"/>
       <c r="R89" s="23">
@@ -10230,21 +10274,21 @@
         <v>0</v>
       </c>
       <c r="V89" s="23">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>101</v>
+        <v>108</v>
+      </c>
+      <c r="B90" s="69" t="s">
+        <v>100</v>
       </c>
       <c r="C90" s="25">
         <v>0</v>
       </c>
-      <c r="D90" s="25" t="s">
-        <v>101</v>
+      <c r="D90" s="69" t="s">
+        <v>100</v>
       </c>
       <c r="E90" s="25">
         <v>0</v>
@@ -10253,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="25">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="H90" s="25"/>
       <c r="I90" s="25">
@@ -10292,10 +10336,13 @@
         <v>0</v>
       </c>
       <c r="V90" s="25">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+      <c r="Z90" s="68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -10319,20 +10366,20 @@
       <c r="U91" s="19"/>
       <c r="V91" s="19"/>
     </row>
-    <row r="92" spans="1:22" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="67" t="s">
+    <row r="92" spans="1:26" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="67"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="67"/>
-      <c r="J92" s="67"/>
-      <c r="K92" s="67"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="65"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="65"/>
       <c r="L92" s="32"/>
       <c r="M92" s="32"/>
       <c r="N92" s="32"/>
@@ -10345,20 +10392,20 @@
       <c r="U92" s="32"/>
       <c r="V92" s="32"/>
     </row>
-    <row r="93" spans="1:22" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="68" t="s">
+    <row r="93" spans="1:26" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B93" s="68"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="68"/>
-      <c r="H93" s="68"/>
-      <c r="I93" s="68"/>
-      <c r="J93" s="68"/>
-      <c r="K93" s="68"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="66"/>
+      <c r="J93" s="66"/>
+      <c r="K93" s="66"/>
       <c r="L93" s="34"/>
       <c r="M93" s="34"/>
       <c r="N93" s="34"/>
@@ -10368,84 +10415,84 @@
       <c r="R93" s="34"/>
       <c r="S93" s="34"/>
     </row>
-    <row r="94" spans="1:22" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="66" t="s">
+    <row r="94" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="B94" s="66"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="66"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="66"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48"/>
-      <c r="J94" s="48"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="64"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
       <c r="K94" s="37"/>
       <c r="R94" s="5"/>
     </row>
-    <row r="95" spans="1:22" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="65" t="s">
+    <row r="95" spans="1:26" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95" s="63"/>
+      <c r="C95" s="63"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="63"/>
+      <c r="I95" s="63"/>
+      <c r="J95" s="63"/>
+      <c r="K95" s="63"/>
+      <c r="R95" s="5"/>
+    </row>
+    <row r="96" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" s="60"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="60"/>
+      <c r="J96" s="60"/>
+      <c r="K96" s="60"/>
+    </row>
+    <row r="97" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B95" s="65"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="65"/>
-      <c r="E95" s="65"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="65"/>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
-      <c r="J95" s="65"/>
-      <c r="K95" s="65"/>
-      <c r="R95" s="5"/>
-    </row>
-    <row r="96" spans="1:22" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="B96" s="64"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="64"/>
-      <c r="H96" s="64"/>
-      <c r="I96" s="64"/>
-      <c r="J96" s="64"/>
-      <c r="K96" s="64"/>
-    </row>
-    <row r="97" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="B97" s="64"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="64"/>
-      <c r="G97" s="64"/>
-      <c r="H97" s="64"/>
-      <c r="I97" s="64"/>
-      <c r="J97" s="64"/>
-      <c r="K97" s="64"/>
-    </row>
-    <row r="98" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="60"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="60"/>
+      <c r="I97" s="60"/>
+      <c r="J97" s="60"/>
+      <c r="K97" s="60"/>
+    </row>
+    <row r="98" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B98" s="47"/>
-      <c r="C98" s="47"/>
-      <c r="D98" s="47"/>
-      <c r="E98" s="47"/>
-      <c r="F98" s="47"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="47"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="47"/>
-      <c r="K98" s="47"/>
-    </row>
-    <row r="99" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="46"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="46"/>
+      <c r="K98" s="46"/>
+    </row>
+    <row r="99" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="42" t="s">
         <v>58</v>
       </c>
@@ -10460,58 +10507,58 @@
       <c r="J99" s="41"/>
       <c r="K99" s="41"/>
     </row>
-    <row r="100" spans="1:21" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" s="50"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="50"/>
+      <c r="K100" s="50"/>
+    </row>
+    <row r="101" spans="1:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B100" s="51"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="51"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="51"/>
-      <c r="G100" s="51"/>
-      <c r="H100" s="51"/>
-      <c r="I100" s="51"/>
-      <c r="J100" s="51"/>
-      <c r="K100" s="51"/>
-    </row>
-    <row r="101" spans="1:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="61" t="s">
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="57"/>
+      <c r="J101" s="57"/>
+      <c r="K101" s="57"/>
+    </row>
+    <row r="102" spans="1:21" s="51" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="61"/>
-      <c r="C101" s="61"/>
-      <c r="D101" s="61"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="61"/>
-      <c r="I101" s="61"/>
-      <c r="J101" s="61"/>
-      <c r="K101" s="61"/>
-    </row>
-    <row r="102" spans="1:21" s="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" s="62"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="62"/>
-      <c r="F102" s="62"/>
-      <c r="G102" s="62"/>
-      <c r="H102" s="62"/>
-      <c r="I102" s="62"/>
-      <c r="J102" s="62"/>
-      <c r="K102" s="62"/>
-      <c r="R102" s="53"/>
-    </row>
-    <row r="103" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="58"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="58"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="58"/>
+      <c r="J102" s="58"/>
+      <c r="K102" s="58"/>
+      <c r="R102" s="52"/>
+    </row>
+    <row r="103" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="20"/>
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
     </row>
-    <row r="104" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>41</v>
       </c>
@@ -10539,56 +10586,41 @@
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
     </row>
-    <row r="106" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="63" t="s">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A106" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="B106" s="63"/>
-      <c r="C106" s="63"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="63"/>
-      <c r="F106" s="63"/>
-      <c r="G106" s="63"/>
-      <c r="H106" s="63"/>
+      <c r="B106" s="59"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="59"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="T69:T70"/>
-    <mergeCell ref="A101:K101"/>
-    <mergeCell ref="A102:K102"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="Q69:Q70"/>
-    <mergeCell ref="A96:K96"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A95:K95"/>
-    <mergeCell ref="A94:G94"/>
-    <mergeCell ref="A92:K92"/>
-    <mergeCell ref="A93:K93"/>
-    <mergeCell ref="A97:K97"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="D69:D70"/>
@@ -10605,16 +10637,31 @@
     <mergeCell ref="U69:U70"/>
     <mergeCell ref="V69:V70"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="T69:T70"/>
+    <mergeCell ref="A101:K101"/>
+    <mergeCell ref="A102:K102"/>
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="Q69:Q70"/>
+    <mergeCell ref="A96:K96"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A95:K95"/>
+    <mergeCell ref="A94:G94"/>
+    <mergeCell ref="A92:K92"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A97:K97"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
